--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H2">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I2">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J2">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7246186666666667</v>
+        <v>0.1356863333333333</v>
       </c>
       <c r="N2">
-        <v>2.173856</v>
+        <v>0.407059</v>
       </c>
       <c r="O2">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="P2">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="Q2">
-        <v>5.058428374467555</v>
+        <v>1.21533570335</v>
       </c>
       <c r="R2">
-        <v>45.525855370208</v>
+        <v>10.93802133015</v>
       </c>
       <c r="S2">
-        <v>0.006832531053223685</v>
+        <v>0.00154347607320562</v>
       </c>
       <c r="T2">
-        <v>0.006832531053223683</v>
+        <v>0.00154347607320562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H3">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I3">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J3">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>51.587835</v>
       </c>
       <c r="O3">
-        <v>0.630085160334334</v>
+        <v>0.564494940478519</v>
       </c>
       <c r="P3">
-        <v>0.630085160334334</v>
+        <v>0.5644949404785189</v>
       </c>
       <c r="Q3">
-        <v>120.0416993312116</v>
+        <v>154.02321956775</v>
       </c>
       <c r="R3">
-        <v>1080.375293980905</v>
+        <v>1386.20897610975</v>
       </c>
       <c r="S3">
-        <v>0.1621429775505275</v>
+        <v>0.1956094546269201</v>
       </c>
       <c r="T3">
-        <v>0.1621429775505275</v>
+        <v>0.19560945462692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H4">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I4">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J4">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.370898</v>
+        <v>13.13090033333333</v>
       </c>
       <c r="N4">
-        <v>28.112694</v>
+        <v>39.392701</v>
       </c>
       <c r="O4">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251812</v>
       </c>
       <c r="P4">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251811</v>
       </c>
       <c r="Q4">
-        <v>65.41649907460466</v>
+        <v>117.61281774065</v>
       </c>
       <c r="R4">
-        <v>588.7484916714419</v>
+        <v>1058.51535966585</v>
       </c>
       <c r="S4">
-        <v>0.08835951173618453</v>
+        <v>0.1493682523969329</v>
       </c>
       <c r="T4">
-        <v>0.0883595117361845</v>
+        <v>0.1493682523969329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>19.126085</v>
       </c>
       <c r="I5">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J5">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7246186666666667</v>
+        <v>0.1356863333333333</v>
       </c>
       <c r="N5">
-        <v>2.173856</v>
+        <v>0.407059</v>
       </c>
       <c r="O5">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="P5">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="Q5">
-        <v>4.619706070417778</v>
+        <v>0.8650494482238889</v>
       </c>
       <c r="R5">
-        <v>41.57735463376</v>
+        <v>7.785445034015</v>
       </c>
       <c r="S5">
-        <v>0.006239939136474944</v>
+        <v>0.001098612607029436</v>
       </c>
       <c r="T5">
-        <v>0.006239939136474944</v>
+        <v>0.001098612607029436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>19.126085</v>
       </c>
       <c r="I6">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J6">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>51.587835</v>
       </c>
       <c r="O6">
-        <v>0.630085160334334</v>
+        <v>0.564494940478519</v>
       </c>
       <c r="P6">
-        <v>0.630085160334334</v>
+        <v>0.5644949404785189</v>
       </c>
       <c r="Q6">
         <v>109.6303685751083</v>
@@ -821,10 +821,10 @@
         <v>986.6733171759749</v>
       </c>
       <c r="S6">
-        <v>0.1480801628914297</v>
+        <v>0.1392305437304036</v>
       </c>
       <c r="T6">
-        <v>0.1480801628914297</v>
+        <v>0.1392305437304036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>19.126085</v>
       </c>
       <c r="I7">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J7">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.370898</v>
+        <v>13.13090033333333</v>
       </c>
       <c r="N7">
-        <v>28.112694</v>
+        <v>39.392701</v>
       </c>
       <c r="O7">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251812</v>
       </c>
       <c r="P7">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251811</v>
       </c>
       <c r="Q7">
-        <v>59.74286389144333</v>
+        <v>83.7142386339539</v>
       </c>
       <c r="R7">
-        <v>537.68577502299</v>
+        <v>753.428147705585</v>
       </c>
       <c r="S7">
-        <v>0.08069600724350846</v>
+        <v>0.106317064463729</v>
       </c>
       <c r="T7">
-        <v>0.08069600724350845</v>
+        <v>0.106317064463729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H8">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I8">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J8">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.7246186666666667</v>
+        <v>0.1356863333333333</v>
       </c>
       <c r="N8">
-        <v>2.173856</v>
+        <v>0.407059</v>
       </c>
       <c r="O8">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="P8">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="Q8">
-        <v>5.650599550464</v>
+        <v>1.018363426323444</v>
       </c>
       <c r="R8">
-        <v>50.85539595417601</v>
+        <v>9.165270836910999</v>
       </c>
       <c r="S8">
-        <v>0.007632389754246724</v>
+        <v>0.001293321325149343</v>
       </c>
       <c r="T8">
-        <v>0.007632389754246722</v>
+        <v>0.001293321325149343</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H9">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I9">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J9">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>51.587835</v>
       </c>
       <c r="O9">
-        <v>0.630085160334334</v>
+        <v>0.564494940478519</v>
       </c>
       <c r="P9">
-        <v>0.630085160334334</v>
+        <v>0.5644949404785189</v>
       </c>
       <c r="Q9">
-        <v>134.09452938024</v>
+        <v>129.0603190378016</v>
       </c>
       <c r="R9">
-        <v>1206.85076442216</v>
+        <v>1161.542871340215</v>
       </c>
       <c r="S9">
-        <v>0.1811244458224328</v>
+        <v>0.1639065765006686</v>
       </c>
       <c r="T9">
-        <v>0.1811244458224328</v>
+        <v>0.1639065765006685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H10">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I10">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J10">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.370898</v>
+        <v>13.13090033333333</v>
       </c>
       <c r="N10">
-        <v>28.112694</v>
+        <v>39.392701</v>
       </c>
       <c r="O10">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251812</v>
       </c>
       <c r="P10">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251811</v>
       </c>
       <c r="Q10">
-        <v>73.07456247273601</v>
+        <v>98.55103550712543</v>
       </c>
       <c r="R10">
-        <v>657.6710622546241</v>
+        <v>886.9593195641289</v>
       </c>
       <c r="S10">
-        <v>0.09870342729687399</v>
+        <v>0.1251597931959049</v>
       </c>
       <c r="T10">
-        <v>0.09870342729687398</v>
+        <v>0.1251597931959049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H11">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I11">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J11">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.7246186666666667</v>
+        <v>0.1356863333333333</v>
       </c>
       <c r="N11">
-        <v>2.173856</v>
+        <v>0.407059</v>
       </c>
       <c r="O11">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="P11">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="Q11">
-        <v>4.328242221045334</v>
+        <v>0.4084993556571111</v>
       </c>
       <c r="R11">
-        <v>38.954179989408</v>
+        <v>3.676494200914</v>
       </c>
       <c r="S11">
-        <v>0.005846252470517368</v>
+        <v>0.0005187940909155419</v>
       </c>
       <c r="T11">
-        <v>0.005846252470517367</v>
+        <v>0.0005187940909155419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H12">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I12">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J12">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>51.587835</v>
       </c>
       <c r="O12">
-        <v>0.630085160334334</v>
+        <v>0.564494940478519</v>
       </c>
       <c r="P12">
-        <v>0.630085160334334</v>
+        <v>0.5644949404785189</v>
       </c>
       <c r="Q12">
-        <v>102.713632153795</v>
+        <v>51.77037568815666</v>
       </c>
       <c r="R12">
-        <v>924.422689384155</v>
+        <v>465.93338119341</v>
       </c>
       <c r="S12">
-        <v>0.138737574069944</v>
+        <v>0.06574836562052669</v>
       </c>
       <c r="T12">
-        <v>0.138737574069944</v>
+        <v>0.06574836562052667</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H13">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I13">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J13">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.370898</v>
+        <v>13.13090033333333</v>
       </c>
       <c r="N13">
-        <v>28.112694</v>
+        <v>39.392701</v>
       </c>
       <c r="O13">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251812</v>
       </c>
       <c r="P13">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251811</v>
       </c>
       <c r="Q13">
-        <v>55.97360134163799</v>
+        <v>39.53208988400512</v>
       </c>
       <c r="R13">
-        <v>503.762412074742</v>
+        <v>355.788808956046</v>
       </c>
       <c r="S13">
-        <v>0.0756047809746362</v>
+        <v>0.05020574536861429</v>
       </c>
       <c r="T13">
-        <v>0.07560478097463619</v>
+        <v>0.05020574536861427</v>
       </c>
     </row>
   </sheetData>
